--- a/DeBilt2015_temperature.xlsx
+++ b/DeBilt2015_temperature.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t># BRON: KONINKLIJK NEDERLANDS METEOROLOGISCH INSTITUUT (KNMI)</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve"># TN       = Minimum temperatuur (in graden Celsius); </t>
-  </si>
-  <si>
-    <t>PHOTO ON</t>
-  </si>
-  <si>
-    <t>PHOTO OFF</t>
   </si>
 </sst>
 </file>
@@ -891,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +896,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -919,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>260</v>
       </c>
@@ -936,7 +930,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>260</v>
       </c>
@@ -953,7 +947,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>260</v>
       </c>
@@ -970,7 +964,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>260</v>
       </c>
@@ -987,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>260</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>260</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>260</v>
       </c>
@@ -1038,7 +1032,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>260</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>260</v>
       </c>
@@ -1072,7 +1066,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>260</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>260</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>260</v>
       </c>
@@ -1122,11 +1116,8 @@
       <c r="E13">
         <v>10.199999999999999</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>260</v>
       </c>
@@ -1143,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>260</v>
       </c>
@@ -1160,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>260</v>
       </c>
@@ -1177,7 +1168,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>260</v>
       </c>
@@ -1194,7 +1185,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>260</v>
       </c>
@@ -1211,7 +1202,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>260</v>
       </c>
@@ -1228,7 +1219,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>260</v>
       </c>
@@ -1245,7 +1236,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>260</v>
       </c>
@@ -1261,11 +1252,8 @@
       <c r="E21">
         <v>3.7</v>
       </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>260</v>
       </c>
@@ -1282,7 +1270,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>260</v>
       </c>
@@ -1299,7 +1287,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>260</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>260</v>
       </c>
@@ -1333,7 +1321,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>260</v>
       </c>
@@ -1350,7 +1338,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>260</v>
       </c>
@@ -1367,7 +1355,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
@@ -1384,7 +1372,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>260</v>
       </c>
@@ -1401,7 +1389,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>260</v>
       </c>
@@ -1418,7 +1406,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>260</v>
       </c>
@@ -1435,7 +1423,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>260</v>
       </c>
@@ -1996,7 +1984,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>260</v>
       </c>
@@ -2013,7 +2001,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>260</v>
       </c>
@@ -2030,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>260</v>
       </c>
@@ -2047,7 +2035,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>260</v>
       </c>
@@ -2063,11 +2051,8 @@
       <c r="E68">
         <v>15.7</v>
       </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>260</v>
       </c>
@@ -2084,7 +2069,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>260</v>
       </c>
@@ -2101,7 +2086,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>260</v>
       </c>
@@ -2118,7 +2103,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>260</v>
       </c>
@@ -2135,7 +2120,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>260</v>
       </c>
@@ -2152,7 +2137,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>260</v>
       </c>
@@ -2169,7 +2154,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>260</v>
       </c>
@@ -2186,7 +2171,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>260</v>
       </c>
@@ -2203,7 +2188,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>260</v>
       </c>
@@ -2220,7 +2205,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>260</v>
       </c>
@@ -2237,7 +2222,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>260</v>
       </c>
@@ -2254,7 +2239,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>260</v>
       </c>
@@ -6351,7 +6336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>260</v>
       </c>
@@ -6368,7 +6353,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>260</v>
       </c>
@@ -6385,7 +6370,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>260</v>
       </c>
@@ -6402,7 +6387,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>260</v>
       </c>
@@ -6419,7 +6404,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>260</v>
       </c>
@@ -6436,7 +6421,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>260</v>
       </c>
@@ -6453,7 +6438,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>260</v>
       </c>
@@ -6470,7 +6455,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>260</v>
       </c>
@@ -6487,7 +6472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>260</v>
       </c>
@@ -6503,11 +6488,8 @@
       <c r="E329">
         <v>6.6</v>
       </c>
-      <c r="G329" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>260</v>
       </c>
@@ -6524,7 +6506,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>260</v>
       </c>
@@ -6541,7 +6523,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>260</v>
       </c>
@@ -6558,7 +6540,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>260</v>
       </c>
@@ -6575,7 +6557,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>260</v>
       </c>
@@ -6592,7 +6574,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>260</v>
       </c>
@@ -6609,7 +6591,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>260</v>
       </c>
@@ -6626,7 +6608,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>260</v>
       </c>
@@ -6643,7 +6625,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>260</v>
       </c>
@@ -6659,11 +6641,8 @@
       <c r="E338">
         <v>12.7</v>
       </c>
-      <c r="G338" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>260</v>
       </c>
@@ -6680,7 +6659,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>260</v>
       </c>
@@ -6697,7 +6676,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>260</v>
       </c>
@@ -6714,7 +6693,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>260</v>
       </c>
@@ -6731,7 +6710,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>260</v>
       </c>
@@ -6748,7 +6727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>260</v>
       </c>
@@ -6765,7 +6744,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>260</v>
       </c>
@@ -6782,7 +6761,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>260</v>
       </c>
@@ -6799,7 +6778,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>260</v>
       </c>
@@ -6816,7 +6795,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>260</v>
       </c>
@@ -6833,7 +6812,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>260</v>
       </c>
@@ -6850,7 +6829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>260</v>
       </c>
@@ -6867,7 +6846,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>260</v>
       </c>
@@ -6884,7 +6863,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>260</v>
       </c>
